--- a/inputs/site/site_metadata.xlsx
+++ b/inputs/site/site_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PITcleanr_lite\inputs\site\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC67258-1C4A-46F4-B600-804A8671AEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAF3520-4387-4BB0-A77F-8C0A6760887C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="49">
   <si>
     <t>site_code</t>
   </si>
@@ -495,7 +495,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,6 +1085,9 @@
       <c r="C23" t="s">
         <v>37</v>
       </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
       <c r="F23">
         <v>45.109499999999997</v>
       </c>
@@ -1104,6 +1107,9 @@
       </c>
       <c r="C24" t="s">
         <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
       </c>
       <c r="F24">
         <v>45.1113</v>
